--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1470625.710111535</v>
+        <v>1467930.550747621</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12436699.94224556</v>
+        <v>12436666.27081003</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10577686.1202658</v>
+        <v>10578523.25849014</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.67913628361552</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>220.7742444965156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>111.1538031370716</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>186.2137653768206</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>48.20279434449682</v>
+        <v>62.28172511469221</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>294.1095482331099</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0198440937147</v>
+        <v>273.3999567397721</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825858</v>
+        <v>383.4773344784372</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520077</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4754363151146</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>119.8130055221893</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339769</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3160423925934</v>
+        <v>25.04518887443217</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.38436933829631</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>69.61071893696067</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97853542247806</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>199.5688730361285</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>338.0483325699331</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>209.7025251006899</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>192.4589654296905</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201344977</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111887</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>49.50328711682656</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>86.64179915749274</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>8.28254627148992</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>77.24833194821585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.63818461247369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>123.4858793700114</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261894</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001829</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>1.272790488244564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>136.2081891901536</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>34.32106446352756</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819398</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>64.44601915223787</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.73846614325222</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>34.32106446352577</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.0408918313862</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>102.7673426709132</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812072</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712596</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>51.89407438975554</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6315337216684</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>86.26216629270414</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>235.8244881232825</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766904</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>173.7797061357535</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.456480970249</v>
+        <v>93.85094319419984</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>113.9549918517053</v>
+        <v>168.4805514670952</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881301</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>48.4745767553155</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>241.4474687473713</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>80.33989744908988</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.98113264792551</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="C2" t="n">
-        <v>53.98113264792551</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="D2" t="n">
-        <v>53.98113264792551</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="E2" t="n">
-        <v>53.98113264792551</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="F2" t="n">
-        <v>47.03563189872203</v>
+        <v>373.5365434194364</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>360.572730645992</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822814</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>320.3587892151035</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>53.98113264792551</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.98113264792551</v>
+        <v>380.4820441686398</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.5125167142792</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="C3" t="n">
-        <v>405.5125167142792</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="D3" t="n">
-        <v>405.5125167142792</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902313</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
         <v>338.8740072302309</v>
@@ -4440,19 +4440,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>924.2430673874899</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>924.2430673874899</v>
       </c>
       <c r="W3" t="n">
-        <v>613.272815479233</v>
+        <v>924.2430673874899</v>
       </c>
       <c r="X3" t="n">
-        <v>613.272815479233</v>
+        <v>716.391567181957</v>
       </c>
       <c r="Y3" t="n">
-        <v>405.5125167142792</v>
+        <v>508.6312684170032</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.01124519141231</v>
+        <v>698.0734409426901</v>
       </c>
       <c r="C4" t="n">
-        <v>85.01124519141231</v>
+        <v>698.0734409426901</v>
       </c>
       <c r="D4" t="n">
-        <v>85.01124519141231</v>
+        <v>547.9568015303544</v>
       </c>
       <c r="E4" t="n">
-        <v>85.01124519141231</v>
+        <v>400.0437079479613</v>
       </c>
       <c r="F4" t="n">
-        <v>85.01124519141231</v>
+        <v>253.1537604500509</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="H4" t="n">
         <v>36.32155393434482</v>
@@ -4489,19 +4489,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349424</v>
+        <v>698.0734409426901</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.01124519141231</v>
+        <v>698.0734409426901</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>827.5507307702082</v>
+        <v>694.1906021302036</v>
       </c>
       <c r="C5" t="n">
-        <v>827.5507307702082</v>
+        <v>694.1906021302036</v>
       </c>
       <c r="D5" t="n">
-        <v>827.5507307702082</v>
+        <v>694.1906021302036</v>
       </c>
       <c r="E5" t="n">
-        <v>530.4703790195922</v>
+        <v>694.1906021302036</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117996</v>
+        <v>418.0290296657874</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438616</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438616</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749718</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="J5" t="n">
-        <v>93.5187746828135</v>
+        <v>93.68840227144221</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452969</v>
+        <v>238.8628998582993</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192536</v>
+        <v>455.8664631799365</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494205</v>
+        <v>728.9941769296668</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730199</v>
+        <v>1011.155191012934</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145365</v>
+        <v>1264.256574219954</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739594</v>
+        <v>1445.771748220735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374859</v>
+        <v>1321.307887090401</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374859</v>
+        <v>1067.656360391283</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.016489031288</v>
+        <v>1067.656360391283</v>
       </c>
       <c r="W5" t="n">
-        <v>1201.016489031288</v>
+        <v>1067.656360391283</v>
       </c>
       <c r="X5" t="n">
-        <v>827.5507307702082</v>
+        <v>694.1906021302036</v>
       </c>
       <c r="Y5" t="n">
-        <v>827.5507307702082</v>
+        <v>694.1906021302036</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286.6768192327299</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="C6" t="n">
-        <v>286.6768192327299</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="D6" t="n">
-        <v>286.6768192327299</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="E6" t="n">
-        <v>286.6768192327299</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="F6" t="n">
-        <v>286.6768192327299</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6535813315286</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112687</v>
+        <v>55.9763573385095</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749718</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="J6" t="n">
-        <v>69.88900179495054</v>
+        <v>70.50414779342391</v>
       </c>
       <c r="K6" t="n">
-        <v>179.8878138897254</v>
+        <v>180.6383779085194</v>
       </c>
       <c r="L6" t="n">
-        <v>374.1173326028509</v>
+        <v>375.0499828615878</v>
       </c>
       <c r="M6" t="n">
-        <v>620.1308878987873</v>
+        <v>621.2760242110844</v>
       </c>
       <c r="N6" t="n">
-        <v>887.0643348829739</v>
+        <v>888.4275811223971</v>
       </c>
       <c r="O6" t="n">
-        <v>1109.036493992974</v>
+        <v>1110.599268204485</v>
       </c>
       <c r="P6" t="n">
-        <v>1267.8556548467</v>
+        <v>1269.578567846507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374859</v>
+        <v>1529.48068201648</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525664</v>
+        <v>1385.004959357767</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163161</v>
+        <v>1189.098730836363</v>
       </c>
       <c r="U6" t="n">
-        <v>1191.678083163161</v>
+        <v>960.9776212689407</v>
       </c>
       <c r="V6" t="n">
-        <v>956.5259749314182</v>
+        <v>725.8255130371979</v>
       </c>
       <c r="W6" t="n">
-        <v>702.2886182032166</v>
+        <v>471.5881563089962</v>
       </c>
       <c r="X6" t="n">
-        <v>494.4371179976838</v>
+        <v>263.7366561034634</v>
       </c>
       <c r="Y6" t="n">
-        <v>286.6768192327299</v>
+        <v>55.9763573385095</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>399.9605525785905</v>
+        <v>199.059759015718</v>
       </c>
       <c r="C7" t="n">
-        <v>399.9605525785905</v>
+        <v>199.059759015718</v>
       </c>
       <c r="D7" t="n">
-        <v>249.8439131662547</v>
+        <v>199.059759015718</v>
       </c>
       <c r="E7" t="n">
-        <v>249.8439131662547</v>
+        <v>199.059759015718</v>
       </c>
       <c r="F7" t="n">
-        <v>102.9539656683444</v>
+        <v>199.059759015718</v>
       </c>
       <c r="G7" t="n">
-        <v>32.6401081562629</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="H7" t="n">
-        <v>32.6401081562629</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6401081562629</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749718</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747002</v>
+        <v>157.3778790199915</v>
       </c>
       <c r="L7" t="n">
-        <v>374.813488791462</v>
+        <v>375.0362985406463</v>
       </c>
       <c r="M7" t="n">
-        <v>614.582688343769</v>
+        <v>614.9157070573551</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630868</v>
+        <v>854.5259358182304</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109133</v>
+        <v>1059.828468603748</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.35455501623</v>
+        <v>1211.979570281385</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767124</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767124</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767124</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.202138767124</v>
+        <v>1032.301306076494</v>
       </c>
       <c r="U7" t="n">
-        <v>944.0622108214379</v>
+        <v>743.1614172585655</v>
       </c>
       <c r="V7" t="n">
-        <v>689.3777226155511</v>
+        <v>488.4769290526787</v>
       </c>
       <c r="W7" t="n">
-        <v>399.9605525785905</v>
+        <v>199.059759015718</v>
       </c>
       <c r="X7" t="n">
-        <v>399.9605525785905</v>
+        <v>199.059759015718</v>
       </c>
       <c r="Y7" t="n">
-        <v>399.9605525785905</v>
+        <v>199.059759015718</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2350.518595975216</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.052837714136</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.913505738324</v>
+        <v>1963.454355030168</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4996,16 +4996,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2211.491880213583</v>
+        <v>1915.855406824451</v>
       </c>
       <c r="C11" t="n">
-        <v>1842.529363273172</v>
+        <v>1546.89288988404</v>
       </c>
       <c r="D11" t="n">
-        <v>1484.263664666422</v>
+        <v>1188.62719127729</v>
       </c>
       <c r="E11" t="n">
-        <v>1098.475412068178</v>
+        <v>802.8389386790454</v>
       </c>
       <c r="F11" t="n">
-        <v>687.4895072785705</v>
+        <v>391.8530338894379</v>
       </c>
       <c r="G11" t="n">
-        <v>272.9140616082177</v>
+        <v>391.8530338894379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469189</v>
+        <v>100.1852123103651</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>317.3880320746712</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>723.2234501947041</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1263.599934653015</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1896.542330458667</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2544.340204328189</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3142.702105990711</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3618.889144608858</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882244</v>
+        <v>3928.3130327186</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>4022.8933421117</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.765696676227</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234594</v>
+        <v>3722.316578060837</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867202</v>
+        <v>3468.832312715606</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523632</v>
+        <v>3418.828992395579</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253517</v>
+        <v>3066.060337125465</v>
       </c>
       <c r="X11" t="n">
-        <v>2988.231052253517</v>
+        <v>2692.594578864385</v>
       </c>
       <c r="Y11" t="n">
-        <v>2598.091720277705</v>
+        <v>2302.455246888573</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379213</v>
+        <v>202.7540031635559</v>
       </c>
       <c r="K12" t="n">
-        <v>196.812062379213</v>
+        <v>489.9324039036195</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0998698065227</v>
+        <v>922.401744869645</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.413644050412</v>
+        <v>1446.429935688257</v>
       </c>
       <c r="N12" t="n">
-        <v>1674.721951401479</v>
+        <v>1998.736238339037</v>
       </c>
       <c r="O12" t="n">
-        <v>2147.693504267228</v>
+        <v>2189.569860571537</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.961807107383</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.9557648055671</v>
+        <v>927.7607095553469</v>
       </c>
       <c r="C13" t="n">
-        <v>324.0195818776601</v>
+        <v>758.82452662744</v>
       </c>
       <c r="D13" t="n">
-        <v>324.0195818776601</v>
+        <v>608.7078872151044</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481491</v>
+        <v>460.7947936327115</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>313.9048461348011</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469189</v>
+        <v>313.9048461348011</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469189</v>
+        <v>169.9913866528135</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>143.5350566283902</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>377.027092707682</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>731.3429449977127</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1495.578740955085</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1830.803602510217</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2094.125701226118</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2193.001193167698</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2193.001193167698</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>2193.001193167698</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>1972.341685948955</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.488017920202</v>
+        <v>1972.341685948955</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.803529714315</v>
+        <v>1847.608474464095</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.386359677354</v>
+        <v>1558.191304427134</v>
       </c>
       <c r="X13" t="n">
-        <v>895.3968087793369</v>
+        <v>1330.201753529117</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.6042296358067</v>
+        <v>1109.409174385587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608053</v>
@@ -5276,10 +5276,10 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5294,7 +5294,7 @@
         <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220732</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D16" t="n">
-        <v>343.9423506097376</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>343.9423506097376</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608053</v>
@@ -5473,13 +5473,13 @@
         <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1276.322725445818</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>1276.322725445818</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>325.1228070941661</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>325.1228070941661</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2402.782814748692</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2402.782814748692</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2183.181349771633</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1894.106123115831</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909944</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872983</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974966</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314359</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>372.3074987251925</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>841.9378825128742</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127285</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304023</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327645</v>
+        <v>1072.552373744307</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048576</v>
+        <v>903.6161908164004</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048576</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E22" t="n">
-        <v>446.9048623224646</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1702.982968616094</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1702.982968616094</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1474.993417718077</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630042</v>
+        <v>1254.200838574547</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400719</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138418</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703116</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098234</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819165</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695806</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871876</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892772</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6485,7 +6485,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.974531143471</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C31" t="n">
-        <v>869.974531143471</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D31" t="n">
-        <v>719.8578917311352</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>571.9447981487421</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233312</v>
+        <v>513.8536007400761</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797783</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U34" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V34" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W34" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>1029.834814666861</v>
+        <v>916.294644713846</v>
       </c>
       <c r="Y34" t="n">
-        <v>809.0422355233312</v>
+        <v>695.5020655703158</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356196</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.960887244719</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>878.3568999154066</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429801</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2160.315914855603</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,22 +7409,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.0424953278208</v>
+        <v>768.538088945957</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>599.6019060180502</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
@@ -7576,22 +7576,22 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487566</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1478.890260236569</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W43" t="n">
-        <v>1189.473090199608</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X43" t="n">
-        <v>961.4835393015907</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.6909601580605</v>
+        <v>950.1865537761968</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,31 +7658,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>802.9288273958737</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>633.9926444679668</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>483.8760050556311</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7810,46 +7810,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>984.5772922261134</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752806</v>
+        <v>34.48513033188152</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.82428212787315</v>
+        <v>21.32864171281786</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1097512509867</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>278.2489713533083</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>69.18563069835332</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628544</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>128.6517639538166</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50.29152613729116</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>144.1482575346867</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>150.3148091464374</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.29152613729209</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81.9879434943313</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.63678056686947</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729389</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>25.57458118682611</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>42.65370535201808</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405071</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038501</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>127.9379057921818</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.89260457060048</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631855985</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>59.1588817302271</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>16.31315520054554</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392193747</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>112.4047682534907</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.37549921168825</v>
+        <v>85.98103698773745</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>111.7546635373319</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>100.1408962628969</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.73700564187283</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>66.0940651974793</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>936444.6107910561</v>
+        <v>936448.9880776751</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837117.3529123282</v>
+        <v>847167.7160292718</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910944.0146379451</v>
+        <v>910944.014637945</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915969.1961964171</v>
+        <v>910944.014637945</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915969.1961964172</v>
+        <v>910944.014637945</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964174</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915969.1961964176</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.045203982</v>
+        <v>466243.580268951</v>
       </c>
       <c r="F2" t="n">
         <v>501674.8572737693</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
@@ -26366,43 +26366,43 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103533</v>
+        <v>132571.3256199668</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196363</v>
+        <v>265633.5342698675</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357071</v>
+        <v>348407.0423979641</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051375</v>
+        <v>143852.0300046392</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>10818.91345744923</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911388</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648355</v>
+        <v>30823.28075181885</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950856</v>
+        <v>65071.59368054878</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456841</v>
+        <v>90993.97560824291</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848892</v>
+        <v>37822.10612282968</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211763.6814565036</v>
+        <v>211626.0773539985</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8628.135434438242</v>
+        <v>8640.730639119232</v>
       </c>
       <c r="F4" t="n">
         <v>8720.723770518933</v>
       </c>
       <c r="G4" t="n">
+        <v>8720.723770518931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8720.723770518931</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744371</v>
-      </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744269</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744295</v>
-      </c>
       <c r="O4" t="n">
-        <v>8727.256391744213</v>
+        <v>8727.25639174426</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744257</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589724</v>
+        <v>72576.9102163817</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214715</v>
+        <v>88006.19635166996</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138383</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-477633.2446726713</v>
       </c>
       <c r="C6" t="n">
-        <v>96782.00539242296</v>
+        <v>96376.79297483004</v>
       </c>
       <c r="D6" t="n">
-        <v>18578.27852871301</v>
+        <v>19057.66247848172</v>
       </c>
       <c r="E6" t="n">
-        <v>40751.0685716895</v>
+        <v>21001.98077661276</v>
       </c>
       <c r="F6" t="n">
-        <v>226290.6578842745</v>
+        <v>248914.0699892071</v>
       </c>
       <c r="G6" t="n">
-        <v>383449.6023550234</v>
+        <v>392766.0999938466</v>
       </c>
       <c r="H6" t="n">
-        <v>394616.8385906023</v>
+        <v>392766.0999938464</v>
       </c>
       <c r="I6" t="n">
-        <v>394616.8385906023</v>
+        <v>383763.1872077174</v>
       </c>
       <c r="J6" t="n">
-        <v>325617.6841714885</v>
+        <v>325582.9462460526</v>
       </c>
       <c r="K6" t="n">
-        <v>363911.3012241189</v>
+        <v>363758.8199133477</v>
       </c>
       <c r="L6" t="n">
-        <v>329429.4582110938</v>
+        <v>329510.506984618</v>
       </c>
       <c r="M6" t="n">
-        <v>309687.2442460341</v>
+        <v>303588.1250569237</v>
       </c>
       <c r="N6" t="n">
-        <v>350834.4320321134</v>
+        <v>356759.9945423368</v>
       </c>
       <c r="O6" t="n">
-        <v>391593.5406133778</v>
+        <v>394582.1006651667</v>
       </c>
       <c r="P6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651667</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26738,22 +26738,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605219</v>
+        <v>717.1508385363633</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26790,34 +26790,34 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937147</v>
+        <v>383.4773344784372</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>1005.723335527925</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910436</v>
+        <v>103.0958247668849</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570172</v>
+        <v>216.9140535811761</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770173</v>
+        <v>297.9634359362271</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>126.0127206626194</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,43 +27012,43 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922086</v>
+        <v>119.7634544769311</v>
       </c>
       <c r="D4" t="n">
-        <v>257.564988006324</v>
+        <v>257.1074976216016</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086098</v>
+        <v>365.1385034278862</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173579</v>
+        <v>154.4219547980814</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.370902183827611e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364279</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922088</v>
+        <v>119.7634544769313</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006324</v>
+        <v>257.1074976216016</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086098</v>
+        <v>365.138503427886</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>154.4219547980814</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922086</v>
+        <v>119.7634544769311</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006324</v>
+        <v>257.1074976216016</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086098</v>
+        <v>365.1385034278862</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>154.4219547980814</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>387.1550383620945</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>93.41938813275235</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>114.700684366483</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>65.48121778409899</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>118.6808726940498</v>
+        <v>104.6019419238544</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>87.8208218391519</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85620164799673</v>
+        <v>133.4760890019394</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.94238459032048</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>309.9490894518052</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.3283209164435</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980478</v>
+        <v>143.3232867394217</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>15.98880786718551</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33765040199577</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.24168848160128</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.43696300167754</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>97.08774776670043</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>150.7292459486107</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629795</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.928326488848242</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714492</v>
+        <v>119.1453906001063</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983621</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>22.85112796408589</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>44.68550909354752</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>139.5384436167232</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28068,7 +28068,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.541036471986591e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,13 +29323,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>5.4886334033492e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.682565116934205e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.095065010390272e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.042193499807635e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876468</v>
+        <v>2.883018446377338</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207363</v>
+        <v>29.52571266396192</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552051</v>
+        <v>111.1475686539624</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845818</v>
+        <v>244.6925868632188</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848628</v>
+        <v>366.7307576983716</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214586</v>
+        <v>454.9619334766921</v>
       </c>
       <c r="M5" t="n">
-        <v>505.954816793098</v>
+        <v>506.232812772455</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882857</v>
+        <v>514.4241889332247</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521578</v>
+        <v>485.75617425706</v>
       </c>
       <c r="P5" t="n">
-        <v>414.353990294895</v>
+        <v>414.5816563621194</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161314</v>
+        <v>311.333558251231</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266041</v>
+        <v>181.1004074822506</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819758</v>
+        <v>65.69678284682365</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320174</v>
+        <v>12.6204132490168</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501174</v>
+        <v>0.2306414757101869</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54170377383584</v>
+        <v>1.542550860248027</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309877</v>
+        <v>14.89779383450068</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882167</v>
+        <v>53.10975549538163</v>
       </c>
       <c r="J6" t="n">
-        <v>145.657197334201</v>
+        <v>145.7372284236963</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812022</v>
+        <v>249.088136060314</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234353</v>
+        <v>334.9297383183271</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249844</v>
+        <v>390.8472070023179</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118047</v>
+        <v>401.1917695695076</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757578</v>
+        <v>367.0120899819066</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160737</v>
+        <v>294.5595585678886</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584135</v>
+        <v>196.9052641958709</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096559</v>
+        <v>95.77346481434682</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313498</v>
+        <v>28.65220567171223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943579</v>
+        <v>6.217562458631298</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576211</v>
+        <v>0.1014836092268439</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797662</v>
+        <v>1.293222823590163</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265559</v>
+        <v>11.49792655882891</v>
       </c>
       <c r="I7" t="n">
-        <v>38.8693805642788</v>
+        <v>38.89073727669328</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419471</v>
+        <v>91.43085362782453</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574011</v>
+        <v>150.2489789589298</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232816</v>
+        <v>192.2669641544867</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970554</v>
+        <v>202.7185558833198</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291733</v>
+        <v>197.8983617226657</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981278</v>
+        <v>182.7911678289078</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402554</v>
+        <v>156.4094222276684</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667388</v>
+        <v>108.2897766189909</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572033</v>
+        <v>58.14800077706314</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861016</v>
+        <v>22.53734684383947</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499101</v>
+        <v>5.525588428067059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169076</v>
+        <v>0.0705394267412817</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.952877700718656</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>50.72365875248494</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>190.9458175569561</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>420.3693037513704</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>630.0246168227911</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>781.6012477561599</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>869.6819865663152</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>883.7543503334822</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>834.5041726969609</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>712.2300044604691</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>534.855071803482</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>311.1212038677685</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.68122213489593</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3962302160574924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.65002319619112</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.59364507900372</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>91.23983372851008</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783042</v>
+        <v>250.3690774962848</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>427.9206316410899</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>575.3920979273747</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>671.4554387893027</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>689.2268662760406</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>335.3574790227269</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>506.0382013849518</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.4240590009886</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>49.22301857837451</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1743436313283633</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.221690427637939</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.75284762027188</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>66.81229031478459</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>157.0735132340023</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>258.1200333201169</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>330.3047750326442</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>348.2600731250998</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>339.9792269857223</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>314.0258433537699</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>268.7033586299557</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>186.0362775361187</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>99.89528050088404</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.71800499801753</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.492677281725738</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1211831142347968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572285</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789554</v>
+        <v>63.64668233653251</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398823</v>
+        <v>146.640906653391</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514714</v>
+        <v>219.1955185067048</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658253</v>
+        <v>275.8865795451823</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916948</v>
+        <v>285.0111253366338</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304711</v>
+        <v>255.6579628353733</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396254</v>
+        <v>183.3486606068499</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.8569006416819</v>
+        <v>89.02786837678147</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64385279540744</v>
+        <v>40.22824346984741</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068432</v>
+        <v>111.246697085955</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435611</v>
+        <v>196.3753585384529</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029661</v>
+        <v>248.7131730802996</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284713</v>
+        <v>269.8500574861744</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313134</v>
+        <v>224.4158455374621</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017434</v>
+        <v>160.5851511535583</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8926480082411</v>
+        <v>267.0007778456985</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315182</v>
+        <v>127.979487133047</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835977</v>
+        <v>219.8569894148028</v>
       </c>
       <c r="M7" t="n">
-        <v>242.191110658896</v>
+        <v>242.3024328451604</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084019</v>
+        <v>242.0305341018943</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121675</v>
+        <v>207.3762957429475</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051489</v>
+        <v>153.6879814925619</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504442</v>
+        <v>22.12773336729647</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>239.3233992246841</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>409.9347657778106</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>545.8348327861727</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>639.3357533390425</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>654.3412867368913</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>604.4059612752742</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>480.9970087051996</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>312.5493819290325</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>95.53566605363642</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116375</v>
+        <v>123.5314508296181</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>290.0791926667309</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>436.8377181475005</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>529.3214048672844</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>557.8851541927073</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>192.7612345782825</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>372.0637939706215</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44228491496708</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>63.71433311732952</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>235.850541494234</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>357.8948002929603</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>387.8439500869404</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>384.1113993649509</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>338.6109712678096</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>265.9819178948492</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>99.87423428442433</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191354</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060438</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
